--- a/public/exports/answers.xlsx
+++ b/public/exports/answers.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>_Email</t>
   </si>
@@ -42,6 +42,15 @@
   </si>
   <si>
     <t>kaas</t>
+  </si>
+  <si>
+    <t>ik@mail.com</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>salami</t>
   </si>
 </sst>
 </file>
@@ -376,11 +385,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +465,20 @@
       </c>
       <c r="D5">
         <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/public/exports/answers.xlsx
+++ b/public/exports/answers.xlsx
@@ -15,42 +15,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+  <si>
+    <t>_Naam</t>
+  </si>
   <si>
     <t>_Email</t>
   </si>
   <si>
-    <t>_Titel</t>
+    <t>_pizza_margarita</t>
   </si>
   <si>
-    <t>_keuze</t>
+    <t>casper</t>
   </si>
   <si>
-    <t>_hoeveelheid</t>
-  </si>
-  <si>
-    <t>mail@mail.com</t>
-  </si>
-  <si>
-    <t>titel</t>
-  </si>
-  <si>
-    <t>hesp</t>
-  </si>
-  <si>
-    <t>Dit is de titel</t>
-  </si>
-  <si>
-    <t>kaas</t>
-  </si>
-  <si>
-    <t>ik@mail.com</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>salami</t>
+    <t>casper@casper.com</t>
   </si>
 </sst>
 </file>
@@ -389,7 +368,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -397,7 +376,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -407,78 +386,16 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
+      <c r="C2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/public/exports/answers.xlsx
+++ b/public/exports/answers.xlsx
@@ -15,21 +15,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>_Naam</t>
   </si>
   <si>
+    <t>_iets</t>
+  </si>
+  <si>
     <t>_Email</t>
   </si>
   <si>
+    <t>_extra</t>
+  </si>
+  <si>
     <t>_pizza_margarita</t>
   </si>
   <si>
-    <t>casper</t>
-  </si>
-  <si>
-    <t>casper@casper.com</t>
+    <t>dsqlkm</t>
+  </si>
+  <si>
+    <t>casper.jacobs.cj@gmail.com</t>
+  </si>
+  <si>
+    <t>kaas</t>
   </si>
 </sst>
 </file>
@@ -368,7 +377,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -376,7 +385,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -386,15 +395,27 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
         <v>2</v>
       </c>
     </row>
